--- a/result-all-clause.xlsx
+++ b/result-all-clause.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -34,7 +34,19 @@
     <t>F</t>
   </si>
   <si>
-    <t>test data</t>
+    <t>Apex AD2600 Progressive-scan DVD player</t>
+  </si>
+  <si>
+    <t>Canon G3</t>
+  </si>
+  <si>
+    <t>Creative Labs Nomad Jukebox Zen Xtra 40GB</t>
+  </si>
+  <si>
+    <t>Nikon coolpix 4300</t>
+  </si>
+  <si>
+    <t>Nokia 6610</t>
   </si>
 </sst>
 </file>
@@ -392,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0.8578553615960099</v>
       </c>
       <c r="F2">
-        <v>0.625</v>
+        <v>0.5545454545454546</v>
       </c>
       <c r="G2">
-        <v>0.4054054054054054</v>
+        <v>0.6736328469847996</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -446,22 +458,206 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.8549019607843137</v>
+      </c>
+      <c r="F3">
+        <v>0.6426512968299711</v>
+      </c>
+      <c r="G3">
+        <v>0.7337353125400909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.921727395411606</v>
+      </c>
+      <c r="F4">
+        <v>0.6221024258760108</v>
+      </c>
+      <c r="G4">
+        <v>0.7428394513116618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.8465909090909091</v>
+      </c>
+      <c r="F5">
+        <v>0.625</v>
+      </c>
+      <c r="G5">
+        <v>0.719111969111969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.8251748251748252</v>
+      </c>
+      <c r="F6">
+        <v>0.708411214953271</v>
+      </c>
+      <c r="G6">
+        <v>0.762347967645981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.4</v>
-      </c>
-      <c r="F3">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="G3">
-        <v>0.459016393442623</v>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.8653366583541147</v>
+      </c>
+      <c r="F7">
+        <v>0.5511049723756906</v>
+      </c>
+      <c r="G7">
+        <v>0.6733653189114528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.8784313725490196</v>
+      </c>
+      <c r="F8">
+        <v>0.6232057416267942</v>
+      </c>
+      <c r="G8">
+        <v>0.7291288552069699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.9298245614035088</v>
+      </c>
+      <c r="F9">
+        <v>0.5985758789497108</v>
+      </c>
+      <c r="G9">
+        <v>0.7283046241239093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.8579545454545454</v>
+      </c>
+      <c r="F10">
+        <v>0.6053811659192825</v>
+      </c>
+      <c r="G10">
+        <v>0.7098706318666969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.8601398601398601</v>
+      </c>
+      <c r="F11">
+        <v>0.7066246056782335</v>
+      </c>
+      <c r="G11">
+        <v>0.7758613406924518</v>
       </c>
     </row>
   </sheetData>
